--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_st_06-02.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_st_06-02.xlsx
@@ -2456,7 +2456,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Ruins of Chernobog "District 14"
+    <t xml:space="preserve">Ruins of Chernobog 'District 14'
 </t>
   </si>
   <si>
@@ -2556,7 +2556,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="FrostNova"]  "They were your real parents.... and they died protecting you."
+    <t xml:space="preserve">[name="FrostNova"]  'They were your real parents.... and they died protecting you.'
 </t>
   </si>
   <si>
@@ -2620,7 +2620,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="FrostNova"]  My grandmother was sentenced to the mines together as a "harborer" of criminals, and moved with them.
+    <t xml:space="preserve">[name="FrostNova"]  My grandmother was sentenced to the mines together as a 'harborer' of criminals, and moved with them.
 </t>
   </si>
   <si>
@@ -2964,7 +2964,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="FrostNova"]  If you don't take Ursus at their word, you'll see that he's in good company. Although, there is only one that the Infected call "Patriot".
+    <t xml:space="preserve">[name="FrostNova"]  If you don't take Ursus at their word, you'll see that he's in good company. Although, there is only one that the Infected call 'Patriot'.
 </t>
   </si>
   <si>
@@ -2984,7 +2984,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="FrostNova"]  However, during the "Great Rebellion", his son was campaigning for the rights of the Infected. Long out of touch with his father, the son still sees him as an Ursus puppet.
+    <t xml:space="preserve">[name="FrostNova"]  However, during the 'Great Rebellion', his son was campaigning for the rights of the Infected. Long out of touch with his father, the son still sees him as an Ursus puppet.
 </t>
   </si>
   <si>
@@ -3164,7 +3164,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="FrostNova"]  "Am I afraid of death?"
+    <t xml:space="preserve">[name="FrostNova"]  'Am I afraid of death?'
 </t>
   </si>
   <si>
@@ -3216,7 +3216,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="FrostNova"]  "That's our big sister. She saved all our lives."
+    <t xml:space="preserve">[name="FrostNova"]  'That's our big sister. She saved all our lives.'
 </t>
   </si>
   <si>
@@ -3224,7 +3224,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="FrostNova"]  The children from the mine carried the Originium crystals I had made, and we became the "Yeti Squad".
+    <t xml:space="preserve">[name="FrostNova"]  The children from the mine carried the Originium crystals I had made, and we became the 'Yeti Squad'.
 </t>
   </si>
   <si>
@@ -3284,7 +3284,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="FrostNova"]  It's only because "enemies kill each other" that we've fought as we have. That's all.
+    <t xml:space="preserve">[name="FrostNova"]  It's only because 'enemies kill each other' that we've fought as we have. That's all.
 </t>
   </si>
   <si>
@@ -3300,11 +3300,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="FrostNova"]  "Reunion, first name. That. Infected, can rely on."
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="FrostNova"]  "No matter where, Reunion goes. No matter what, it does. We cannot, abandon it. To lose Reunion, is to lose, Infected conviction. Fight for: conviction."
+    <t xml:space="preserve">[name="FrostNova"]  'Reunion, first name. That. Infected, can rely on.'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  'No matter where, Reunion goes. No matter what, it does. We cannot, abandon it. To lose Reunion, is to lose, Infected conviction. Fight for: conviction.'
 </t>
   </si>
   <si>
@@ -3340,7 +3340,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="FrostNova"]  After a dozen years of rolling around on the tundra, an Infected woman reached out to us. She said, "Come with me, and let us break all chains."
+    <t xml:space="preserve">[name="FrostNova"]  After a dozen years of rolling around on the tundra, an Infected woman reached out to us. She said, 'Come with me, and let us break all chains.'
 </t>
   </si>
   <si>
@@ -3352,7 +3352,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="FrostNova"]  But she said to us, "Come with me."
+    <t xml:space="preserve">[name="FrostNova"]  But she said to us, 'Come with me.'
 </t>
   </si>
   <si>
@@ -3424,7 +3424,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="FrostNova"]  "What are my chances of winning if I went up against her?"
+    <t xml:space="preserve">[name="FrostNova"]  'What are my chances of winning if I went up against her?'
 </t>
   </si>
   <si>
